--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,26 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +59,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +573,26 @@
           <t>949$z</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Dublette</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Anzahl Treffer</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>338$a</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>020$a (SRU)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -571,7 +607,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9783039196456</t>
+          <t>9780231218634</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -591,12 +627,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hans-Peter Bärtschi. Rebell und Bewahrer</t>
+          <t>&lt;&lt;The&gt;&gt; Great Balancing Act: An Insider's Guide to the Human Vestibular System</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Wehrli, Daniel</t>
+          <t>Jeffrey D. Sharon</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -606,7 +642,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>hier und jetzt 2025 (Okt)</t>
+          <t>Columbia University Press</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -644,29 +680,32 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>E98</t>
+          <t>E01</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>E98AZ</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>ETH Archiv für Zeitgeschichte</t>
+          <t>ETH Bibliothek</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>E01-GESS</t>
+          <t>E01-MOLB</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -674,8 +713,14 @@
           <t>100</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -690,7 +735,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9781583307793</t>
+          <t>9780443337109</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -710,12 +755,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Gutta. Memories of a Vanished World: A Bais Yaakov Teacher’s Poignant Account of the War Years, with a Historical Overview</t>
+          <t>Phytochemical Analysis by Modern Techniques: Recent Trends and Future Perspectives</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Kranzler, David / Sternbuch, Gutta</t>
+          <t>Deepak Kasote (Research Associate, Qatar University), Kishor Kumar Sadasivuni (Assistant Professor, Center of Advanced Materials, Qatar University, Doha, Qatar), Mohammed Alsafran (Associate Professor and Director of the Agricultural Research Station (ARS), Qatar University, Qatar), Zhentian Lei (Assistant Director, MU Metabolomics Center and Assistant Research Professor of Biochemistry)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -725,7 +770,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Feldheim Publishers 2005</t>
+          <t>Elsevier - Health Sciences Division</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -763,29 +808,32 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>E98</t>
+          <t>E01</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>E98AZ</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>ETH Archiv für Zeitgeschichte</t>
+          <t>ETH Bibliothek</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>E01-GESS</t>
+          <t>E01-MOLB</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -793,8 +841,24 @@
           <t>100</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" s="2" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>online resource</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>9780443337116</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -809,7 +873,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9783909059898</t>
+          <t>9781250363725</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -829,12 +893,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Risiko, Solidarität und Mathematik. Die Schweizer Versicherungswirtschaft und ihre Geschichte. 125 Jahre Schweizerischer Versicherungsverband SVV</t>
+          <t>How Not to Die: Revised and Updated</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Wirz, Claudia (Hg.)</t>
+          <t>Michael Greger, Gene Stone</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -844,7 +908,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Zürich: Verein für wirtschaftshistorische Studien  2025</t>
+          <t>Flatiron Books</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -882,29 +946,32 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>E98</t>
+          <t>E01</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>E98AZ</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>ETH Archiv für Zeitgeschichte</t>
+          <t>ETH Bibliothek</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>E01-GESS</t>
+          <t>E01-MOLB</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -912,8 +979,14 @@
           <t>100</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -928,7 +1001,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ISSN 16618211</t>
+          <t>9781718234840</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -948,12 +1021,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Svizzera, un ponte per l'Italia : le sfide del futuro: uno sguardo sulle prospettive della presenza Svizzera in Italia = future challenges: an overview of the Swiss presence in Italy : 100 anni della Camera di Commercio Svizzera in Italia = 100 years od Swiss Chamber of Commerce in Italy : 1919-2019</t>
+          <t>Applied Sport Mechanics</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Onida, Fabrizio</t>
+          <t>Brendan Burkett</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -963,7 +1036,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Milano : Editore Ulrico Hoepli, 2019</t>
+          <t>Human Kinetics Publishers</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -1001,29 +1074,32 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>E98</t>
+          <t>E01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>E98AZ</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>ETH Archiv für Zeitgeschichte</t>
+          <t>ETH Bibliothek</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>E01-GESS</t>
+          <t>E01-MOLB</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1031,8 +1107,19 @@
           <t>100</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Fifth Edition</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1047,7 +1134,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9783039730728</t>
+          <t>9781265462871</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1067,12 +1154,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mattmark 1965. Erinnerungen, Gerichtsurteile, italienisch-schweizerische Verflechtungen</t>
+          <t>Pharmacotherapy Principles and Practice</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Joris, Elisabeth</t>
+          <t>Marie Chisholm-Burns, Jill Kolesar, Patrick Malone, Kelly C Lee, P. Brandon Bookstaver, Kathryn Matthias</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1082,7 +1169,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Rotpunktverlag 2025</t>
+          <t>McGraw-Hill Education</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -1120,29 +1207,32 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>E98</t>
+          <t>E01</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>E98AZ</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>ETH Archiv für Zeitgeschichte</t>
+          <t>ETH Bibliothek</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>E01-GESS</t>
+          <t>E01-MOLB</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1150,8 +1240,21 @@
           <t>100</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>7th edition</t>
+        </is>
+      </c>
+      <c r="AB6" s="2" t="inlineStr">
+        <is>
+          <t>JA</t>
+        </is>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1166,7 +1269,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9783796550287</t>
+          <t>9781784275990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1186,12 +1289,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Anthroposophie und Nationalsozialismus. Die anthroposophische Ärzteschaft</t>
+          <t>&lt;&lt;The&gt;&gt; Nature of Pandemics: Why Protecting Biodiversity is Key to Human Survival</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Selg, Peter (Hg.)</t>
+          <t>Jake Robinson</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1201,7 +1304,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Schwabe 2025</t>
+          <t>Pelagic Publishing</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1239,29 +1342,32 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>E98</t>
+          <t>E01</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>E98AZ</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>ETH Archiv für Zeitgeschichte</t>
+          <t>ETH Bibliothek</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>E01-GESS</t>
+          <t>E01-MOLB</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1269,8 +1375,14 @@
           <t>100</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1285,7 +1397,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9783039800124</t>
+          <t>9781032869971</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1305,12 +1417,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Gefangene Befreier. Eine fast vergessene Geschichte aus dem Zweiten Weltkrieg.</t>
+          <t>Biosimilars and Interchangeable Biologics: Strategic Elements</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Flückiger, Jürg</t>
+          <t>Sarfaraz K. Niazi (Therapeutic Proteins International, LLC, USA)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1320,7 +1432,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>NZZ LIBRO</t>
+          <t>Taylor &amp; Francis Ltd</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -1358,29 +1470,32 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>E98</t>
+          <t>E01</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>E98AZ</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>ETH Archiv für Zeitgeschichte</t>
+          <t>ETH Bibliothek</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>E01-GESS</t>
+          <t>E01-MOLB</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1388,8 +1503,19 @@
           <t>100</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2nd edition</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1404,7 +1530,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9783034018296</t>
+          <t>9781032700991</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1424,12 +1550,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Schaffhauser Migrationsgeschichte seit dem Zweiten Weltkrieg</t>
+          <t>Biostatistical Methods and Applications in Health Research: A Case Study Approach</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Historischer Verein des Kantons Schaffhausen (Hg.)</t>
+          <t>Vivek Verma, Hafiz T.A. Khan, Dilip C. Nath, Kenneth C. Land</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1439,7 +1565,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Chronos 2025</t>
+          <t>Taylor &amp; Francis Ltd</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -1477,29 +1603,32 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>E98</t>
+          <t>E01</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>E98AZ</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>ETH Archiv für Zeitgeschichte</t>
+          <t>ETH Bibliothek</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>E01-GESS</t>
+          <t>E01-MOLB</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1507,8 +1636,14 @@
           <t>100</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1523,7 +1658,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9783039196647</t>
+          <t>9781032792057</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1543,12 +1678,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;&lt;Der&gt;&gt; Basler Abfallkönig. Vom Lumpen-Levy zur Recupa AG 1886–1973</t>
+          <t>Human Memory</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Huggel, Doris</t>
+          <t>Gabriel A. Radvansky (University of Notre Dame, USA)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1558,7 +1693,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>hierundjetzt</t>
+          <t>Taylor &amp; Francis Ltd</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -1596,29 +1731,32 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>E98</t>
+          <t>E01</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>E98AZ</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>ETH Archiv für Zeitgeschichte</t>
+          <t>ETH Bibliothek</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>E01-GESS</t>
+          <t>E01-MOLB</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1626,8 +1764,19 @@
           <t>100</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>5th edition</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1642,7 +1791,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9783039196661</t>
+          <t>9781032737157</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1662,12 +1811,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Kampfzone Ossola. Der Widerstand an der Schweizer Südgrenze 1943–1945</t>
+          <t>Medicinal Chemistry</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rues, Raphael  / Abplanalp, Andrej</t>
+          <t>Norma K Dunlap (Middle Tennessee State University, USA), Donna M Huryn (University of Pennsylvania and University of Pittsburgh, USA)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1677,7 +1826,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>hierundjetzt</t>
+          <t>Taylor &amp; Francis Ltd</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1715,29 +1864,32 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>E98</t>
+          <t>E01</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>E98AZ</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>ETH Archiv für Zeitgeschichte</t>
+          <t>ETH Bibliothek</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>E01-GESS</t>
+          <t>E01-MOLB</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1745,8 +1897,1334 @@
           <t>100</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2nd edition</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>#####nam#a22004095c#4500</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>######s###########||||######|00|#||####d</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9781639056576</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CH-ZuSLS ETH</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ger</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>rda</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ESA Essentials: Endangered Species Act</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Murray Feldman, Sam Kalen</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[s. l.]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>American Bar Association</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>rdacontent</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>rdamedia</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>nc</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>rdacarrier</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>E01</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>ETH Bibliothek</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>E01-UMW</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>#####nam#a22004095c#4500</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>######s###########||||######|00|#||####d</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9781529250022</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CH-ZuSLS ETH</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ger</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>rda</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>&lt;&lt;The&gt;&gt; Visual Life of Climate Change</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Saffron O'Neill (University of Exeter)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[s. l.]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Bristol University Press</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>rdacontent</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>rdamedia</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>nc</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>rdacarrier</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>E01</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>ETH Bibliothek</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>E01-UMW</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>#####nam#a22004095c#4500</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>######s###########||||######|00|#||####d</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9781035346912</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CH-ZuSLS ETH</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ger</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>rda</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pathways and Barriers to Achieving the UN Sustainable Development Goals: Progress, Stagnation and Regression</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cam Caldwell, Verl Anderson, Dima Jamali</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[s. l.]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Edward Elgar Publishing Ltd</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>rdacontent</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>rdamedia</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>nc</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>rdacarrier</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>E01</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>ETH Bibliothek</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>E01-UMW</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>#####nam#a22004095c#4500</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>######s###########||||######|00|#||####d</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>9781800624207</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CH-ZuSLS ETH</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ger</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>rda</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nematodes as Environmental Indicators: From theory to practice</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Thomais Kakouli-Duarte (South East Technological University, Ireland), Dr Gerard W Korthals (Wageningen University &amp; Research, The Netherlands), Sara Sanchez Moreno (Spanish National Institute for Agriculture and Food Research and Technology (INIA), Spain), Dr Gerhard du Preez (North-West University, South Africa), Dr Ron de Goede (retired from Wageningen University, The Netherlands)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[s. l.]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CABI Publishing</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>rdacontent</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>rdamedia</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>nc</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>rdacarrier</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>E05</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>E05BI</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>ETH Grüne Bibliothek</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>E01-UMW</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>für ETH-GRUEN, 2nd edition</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>#####nam#a22004095c#4500</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>######s###########||||######|00|#||####d</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9788881916412</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CH-ZuSLS ETH</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ger</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>rda</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>In cammino sulle creste tra Grigioni e Ticino</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Maini, Daniele</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[s. l.]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Fontana Edizioni</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>rdacontent</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>rdamedia</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>nc</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>rdacarrier</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>E05</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>E05BI</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>ETH Grüne Bibliothek</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>E01-UMW</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>für ETH-GRUEN</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>#####nam#a22004095c#4500</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>######s###########||||######|00|#||####d</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9788881917358</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CH-ZuSLS ETH</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ger</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>rda</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Meraviglie d'acqua tra le vette escursioni tra i laghetti alpini del Ticino</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Daniele Maini</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[s. l.]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Pregassona Fontana Edizioni</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>rdacontent</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>rdamedia</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>nc</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>rdacarrier</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>E05</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>E05BI</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>ETH Grüne Bibliothek</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>E01-UMW</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>für ETH-GRUEN</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>#####nam#a22004095c#4500</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>######s###########||||######|00|#||####d</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9788881918027</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CH-ZuSLS ETH</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ger</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>rda</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Belvederi del Ticino in cammino verso punti panoramici imperdibili</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pfund, Nicola</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[s. l.]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Pregassona Fontana Edizioni</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>rdacontent</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>rdamedia</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>nc</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>rdacarrier</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>E05</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>E05BI</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>ETH Grüne Bibliothek</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>E01-UMW</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>für ETH-GRUEN</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>#####nam#a22004095c#4500</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>######s###########||||######|00|#||####d</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9788881916832</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CH-ZuSLS ETH</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ger</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>rda</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Da un gradino all'altro le più belle scalinate del Canton Ticino</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Pfund, Nicola</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[s. l.]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Pregassona Fontana Edizioni</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>rdacontent</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>rdamedia</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>nc</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>rdacarrier</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>E05</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>E05BI</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>ETH Grüne Bibliothek</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>E01-UMW</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>für ETH-GRUEN</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>#####nam#a22004095c#4500</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>######s###########||||######|00|#||####d</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9781498788670</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CH-ZuSLS ETH</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ger</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>rda</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Plant Molecular Systematics</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Arun K. Pandey, Ritesh K. Choudhary (Scientist-E, Agharkar Research Institute, Maharashtra), Mayank D. Dwivedi (Dept. of Botanical and Environ. Sci, Guru Nanak Dev Univ., Amritsar), Shruti Kasana (Department of Botany, University of Delhi, New Delhi)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[s. l.]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Taylor &amp; Francis Inc</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>rdacontent</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>rdamedia</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>nc</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>rdacarrier</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>E05</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>E05BI</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>ETH Grüne Bibliothek</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>E01-UMW</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>für ETH-GRUEN</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>#####nam#a22004095c#4500</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>######s###########||||######|00|#||####d</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>9783689003814</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CH-ZuSLS ETH</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ger</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>rda</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>&lt;&lt;Ein&gt;&gt; Leben ohne Müll</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Olga Wit</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[s. l.]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Tectum</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>rdacontent</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>rdamedia</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>nc</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>rdacarrier</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>E05</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>E05BI</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>ETH Grüne Bibliothek</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>E01-UMW</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>für ETH-GRUEN, 3. Auflage</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>NEIN</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
